--- a/biology/Médecine/Université_d'État_de_médecine_de_Riazan/Université_d'État_de_médecine_de_Riazan.xlsx
+++ b/biology/Médecine/Université_d'État_de_médecine_de_Riazan/Université_d'État_de_médecine_de_Riazan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université d'État de médecine de Riazan Pavlov (Ряза́нский госуда́рственный медици́нский университе́т и́мени акаде́мика И. П. Па́влова) est un établissement d'enseignement supérieur spécialisé en médecine situé à Riazan en Russie. Cette université a été fondée en 1943 sous le nom d'institut de médecine de Moscou du ministère de la santé. En 1950, l'institut déménage à Riazan et devient l'institut de médecine de Riazan Pavlov, d'après l'académicien  
 Ivan Pavlov. Il devient université en 1993.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette université est l'une des universités parmi les universités de médecine les plus importantes de Russie. La date de sa fondation est 1943, mais son histoire est antérieure car pendant l'hiver 1931-1932 l'on fonde sur la base des cliniques municipales de Moscou un établissement supérieur de médecine qui devient en 1935 le 3e institut de médecine de Moscou, tandis que sur la base de la clinique régionale de Moscou on fonde en février 1932 un établissement similaire, devenu en 1943 le 4e institut de médecine de Moscou.
 Au début de la Grande Guerre patriotique, le 3e institut de médecine de Moscou est évacué à Ijevsk et le 4e institut de médecine de Moscou est évacué à Fergana en République socialiste soviétique d'Ouzbékistan.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Recteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Efim Nikiphorovitch Kovaliov (1950-1952)
 Lev Severianovitch Soutoulov (1952-1962)
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>chancellerie
 service qualité et audit
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,8 +658,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Systeme de formation
-L'université d'État de médecine de Riazan Pavlov forme des diplômés selon des formes d'enseignement à temps plein, à temps partiel et à temps partiel par correspondance.
+          <t>Systeme de formation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'université d'État de médecine de Riazan Pavlov forme des diplômés selon des formes d'enseignement à temps plein, à temps partiel et à temps partiel par correspondance.
 La base matérielle et technique de l'université comprend une vingtaine de bâtiments indépendants, dont une bibliothèque, une clinique dentaire de base, une pharmacie éducative et industrielle, un vivarium et un laboratoire central de recherche.
 Les facultés suivantes font partie de l'université:
 faculté de médecine
@@ -652,9 +675,43 @@
 faculté de psychologie clinique
 faculté de l'enseignement professionnel moyen et des études de premier cycle
 faculté de formation professionnelle complémentaire
-faculté d'enseignement des étudiants étrangers
-Système d'enseignement complémentaire et d'enseignement post-universitaire
-L'université propose les types suivants de formation postuniversitaire et professionnelle complémentaire:
+faculté d'enseignement des étudiants étrangers</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Enseignement scientifique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Système d'enseignement complémentaire et d'enseignement post-universitaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'université propose les types suivants de formation postuniversitaire et professionnelle complémentaire:
 spécialisation des personnes ayant une formation médicale et pharmaceutique supérieure;
 formation avancée aux cycles de perfectionnement général et thématique dans diverses spécialités médicales;
 préparation aux cycles de certification avec la réussite d'un examen de qualification et la délivrance d'un certificat de spécialiste ;
@@ -663,31 +720,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Travail scientifique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant des décennies, les écoles de recherche de l'université médicale d'État de Riazan ont étudié activement un certain nombre de problèmes scientifiques importants, en particulier :
 étude des mécanismes moléculaires de la régulation endocrinienne des fonctions cellulaires en conditions normales et pathologiques
@@ -712,33 +771,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Université_d'État_de_médecine_de_Riazan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Riazan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Musée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 4 septembre 2012, l'université a ouvert un musée consacré à l'histoire de l'université. On y trouve des photographies historiques, des documents, des livres, des objets personnels des premiers collaborateurs de l'établissement[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4 septembre 2012, l'université a ouvert un musée consacré à l'histoire de l'université. On y trouve des photographies historiques, des documents, des livres, des objets personnels des premiers collaborateurs de l'établissement.
 </t>
         </is>
       </c>
